--- a/programbeaverhut.ru 0.01/Клиенты.xlsx
+++ b/programbeaverhut.ru 0.01/Клиенты.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t xml:space="preserve">№ договора</t>
   </si>
@@ -118,70 +118,43 @@
     <t xml:space="preserve">Старый ID клиента</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">greg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfdf</t>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hhhh111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hhhhhhhhhhhhhhhhhhhhhhhhhh</t>
   </si>
   <si>
     <t xml:space="preserve">891098576786</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-04</t>
+    <t xml:space="preserve">2024-03-02</t>
   </si>
   <si>
     <t xml:space="preserve">Без выделения</t>
   </si>
   <si>
-    <t xml:space="preserve">Компания была удалена</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Категория была удалена</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офис был удален</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сотрудник был удален</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gggggg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fffffff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hhhhhhhhhhhhhhhhhhhhhh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hhhhhhhhhhhhhhhhhhhhhhhhhh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111111111111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111111111111111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-01</t>
+    <t xml:space="preserve">ИП Золин Артем Андреевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мебель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аксон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Костюнин Сергей Васильевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ам22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">м232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2м32м3</t>
   </si>
 </sst>
 </file>
@@ -385,7 +358,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>444444</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -404,247 +377,31 @@
         <v>39</v>
       </c>
       <c r="R2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="T2" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="V2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="X2" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="Z2" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="2">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="2">
-        <v>1</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="2">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z4" s="2">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -686,6 +443,32 @@
         <v>33</v>
       </c>
     </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>222222</v>
+      </c>
+      <c r="F2" s="2">
+        <v>444444</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
